--- a/design/衝突判定.xlsx
+++ b/design/衝突判定.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3951B1BB-AC61-4C22-9003-B422FF316F2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B65EA5-8149-4420-A281-0D73332B17EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="計算方法" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="figure" sheetId="3" r:id="rId3"/>
+    <sheet name="figure2" sheetId="5" r:id="rId4"/>
+    <sheet name="line" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>0,0</t>
     <phoneticPr fontId="1"/>
@@ -58,6 +59,90 @@
   </si>
   <si>
     <t>2,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2, 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2, 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2, 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2, 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0, 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1, 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2, 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(1, -2), (1, 4)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切片は存在しない</t>
+    <rPh sb="0" eb="2">
+      <t>セッペン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x の値をそのまま使う</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -128,12 +213,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4647,6 +4733,1656 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
             <a:t>=yo(x0 + x1) - y1(</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>711200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="直線矢印コネクタ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148CDE0A-2D8F-4FF1-A6A9-B034790CC9A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1397000" y="1041400"/>
+          <a:ext cx="3689350" cy="3479800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>901700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DCDAB80-EEA8-4706-80D3-D0D187E942B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4514850"/>
+          <a:ext cx="3752850" cy="4006850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>863600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="楕円 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F8E3F3-B709-4399-8B08-3E960C3EFD11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2006600" y="3721100"/>
+          <a:ext cx="279400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>711200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC378664-1A07-4FDA-A6C1-421BC8741EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1397000" y="1041400"/>
+          <a:ext cx="3689350" cy="3479800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="002060"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>869950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682A6252-4E00-4DC9-B22C-33ADC5F6D1A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2978150" y="2774950"/>
+          <a:ext cx="279400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>711200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D384C00-6C6F-4234-9189-B0932C6E03DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3289300" y="1041400"/>
+          <a:ext cx="3689350" cy="3479800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>844550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="楕円 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E7543A-A967-46FA-B3BD-CC012F78B55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3937000" y="3702050"/>
+          <a:ext cx="279400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF7633F6-96F0-4480-8197-2D3D18645866}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4159250" y="1035050"/>
+          <a:ext cx="3689350" cy="3479800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>882650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>698500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE57876F-62FC-482C-A85E-AB5E69E6020A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4692650" y="1028700"/>
+          <a:ext cx="3689350" cy="3479800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C05576F-4AD9-45D8-9182-D3C18AF7B987}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5308600" y="3676650"/>
+          <a:ext cx="279400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>819150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981BFE00-AAF3-4BD3-8E46-C18078460872}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4775200" y="3676650"/>
+          <a:ext cx="279400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>431800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D290D19A-7E4F-49C6-8DDD-8FCCE0C9FBCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7854950" y="2336800"/>
+          <a:ext cx="3365500" cy="2527300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>単純に距離が最も近いブロックではなく、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>軸の距離が最も近いブロックを選択する。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>ブロックというより、一番近い </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>icol ?</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>最初のアローが突入するセルを求めて、あとは</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> x </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>座標を右にずらしていったときに突入するセルに対して中身を見ていく</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(irow, x) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>という形で保持しておき、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>x </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>をずらした後にセルサイズで割り戻して </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>(irow, icol) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>にするか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>844550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424AF709-8714-4F3D-926A-117F6BB9E735}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2012950" y="3702050"/>
+          <a:ext cx="279400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>838200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BCDCBF-A594-4FF7-8534-9C251634B2D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4013200" y="1790700"/>
+          <a:ext cx="279400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D4B8AE7-5B69-4F97-B164-5FF2D8396899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1981200" y="914400"/>
+          <a:ext cx="0" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32FDD50-55F3-49FD-915A-57C66E7D0541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="2514600"/>
+          <a:ext cx="1981200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AEB0FF6-38FF-4F5C-BA03-CB02AB68ABD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1352550" y="920750"/>
+          <a:ext cx="1955800" cy="1574800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CE2190-B56F-4379-9DFF-82DADBC4CE18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3378200" y="1384300"/>
+          <a:ext cx="1263650" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>y = ax +</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> b</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A9A4B8-2928-42CE-8851-B177449586B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5943600" y="908050"/>
+          <a:ext cx="0" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線矢印コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CB1D13-25ED-4093-8430-B583D1F6847C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="2508250"/>
+          <a:ext cx="1981200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFBCD2F2-B173-4FB4-8A01-D9240500370B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6604000" y="914400"/>
+          <a:ext cx="0" cy="2057400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14069AC2-3017-4729-B417-4BA0436634FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7340600" y="1377950"/>
+          <a:ext cx="1263650" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>x =</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> -b / a</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B64E5D-3D4A-49F8-A9F1-6DA5CDADE9A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10566400" y="908050"/>
+          <a:ext cx="0" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線矢印コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5006296E-E68A-4115-A3F6-53A814A87F33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10566400" y="2508250"/>
+          <a:ext cx="1981200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F357C188-BFD7-444B-9F42-66CDA152E438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9906000" y="1600200"/>
+          <a:ext cx="1981200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A2894D-55AC-487B-B324-9E4A50119B27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11963400" y="1377950"/>
+          <a:ext cx="1263650" cy="711200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>y = </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>b</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5027,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E48E11B-BD16-4BE4-ACFD-47B2602B8F27}">
   <dimension ref="C2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="75" customHeight="1"/>
@@ -5056,7 +6792,7 @@
       </c>
     </row>
     <row r="4" spans="3:5" ht="75" customHeight="1">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -5075,15 +6811,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CBE3526-F96D-49B3-9D5C-3548F5E883CB}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680A9AB2-562C-48AF-A670-27ED2012C590}">
+  <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.5" defaultRowHeight="75" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="2:6" ht="75" customHeight="1">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="75" customHeight="1">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="75" customHeight="1">
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7530D39A-438D-4111-BB8F-2FC6C4A91164}">
+  <dimension ref="J15:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="15" spans="10:10">
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="10:10">
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>